--- a/Antonovskaya_joint_test.xlsx.xlsx
+++ b/Antonovskaya_joint_test.xlsx.xlsx
@@ -424,22 +424,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>метод=geiger</t>
+          <t>метод=gird_straigthtforward</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>максимальное число итераций=99</t>
+          <t>число клеток=200</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>альфа=0.0001</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>точность=1e-06</t>
+          <t>параметр масштабирования=4</t>
         </is>
       </c>
     </row>
